--- a/src/Resources/CSC 406_ Banking Application Data.xlsx
+++ b/src/Resources/CSC 406_ Banking Application Data.xlsx
@@ -14,9 +14,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="114">
   <si>
     <t>Customers</t>
-  </si>
-  <si>
-    <t>Checks</t>
   </si>
   <si>
     <t>SSN</t>
@@ -41,21 +38,6 @@
   </si>
   <si>
     <t>ATM card</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>checkingAccID</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Processed</t>
   </si>
   <si>
     <t>423-45-3245</t>
@@ -307,6 +289,9 @@
     <t>Checking Accounts</t>
   </si>
   <si>
+    <t>checkingAccID</t>
+  </si>
+  <si>
     <t>isGold</t>
   </si>
   <si>
@@ -354,17 +339,32 @@
   <si>
     <t>CC Accounts</t>
   </si>
+  <si>
+    <t>Checks</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -380,12 +380,19 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Roboto"/>
+      <b/>
+    </font>
+    <font/>
+    <font>
+      <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -411,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -424,56 +431,77 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,6 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -722,13 +751,6 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -742,47 +764,32 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -796,22 +803,22 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3">
         <v>64493.0</v>
@@ -822,21 +829,6 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>38445.0</v>
-      </c>
-      <c r="O3" s="9">
-        <v>123.62</v>
-      </c>
-      <c r="P3" s="7" t="b">
-        <v>1</v>
-      </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -850,47 +842,32 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3">
         <v>64503.0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="4">
-        <v>101.0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>39311.0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>145.67</v>
-      </c>
-      <c r="P4" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -904,47 +881,32 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3">
         <v>64501.0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="4">
-        <v>102.0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="10">
-        <v>40070.0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>5.06</v>
-      </c>
-      <c r="P5" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -958,47 +920,32 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3">
         <v>54910.0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="4">
-        <v>200.0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>38036.0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>89.56</v>
-      </c>
-      <c r="P6" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -1012,47 +959,32 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3">
         <v>64503.0</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="4">
-        <v>201.0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>38047.0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>653.69</v>
-      </c>
-      <c r="P7" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -1066,47 +998,32 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3">
         <v>64503.0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="4">
-        <v>202.0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>38114.0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>945.39</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -1120,47 +1037,32 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G9" s="3">
         <v>64502.0</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="4">
-        <v>203.0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>39334.0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>1839.36</v>
-      </c>
-      <c r="P9" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1174,47 +1076,32 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" s="3">
         <v>64503.0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="4">
-        <v>204.0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>39494.0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>532.68</v>
-      </c>
-      <c r="P10" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1228,47 +1115,32 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G11" s="3">
         <v>64502.0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>36838.0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>486.96</v>
-      </c>
-      <c r="P11" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1282,47 +1154,32 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3">
         <v>64501.0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="4">
-        <v>301.0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>41031.0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>2693.86</v>
-      </c>
-      <c r="P12" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1336,47 +1193,32 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3">
         <v>64502.0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="4">
-        <v>400.0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>39638.0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>902.3</v>
-      </c>
-      <c r="P13" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1390,47 +1232,32 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G14" s="3">
         <v>56708.0</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="4">
-        <v>401.0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>39639.0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>536.96</v>
-      </c>
-      <c r="P14" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1444,47 +1271,32 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G15" s="3">
         <v>63301.0</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="4">
-        <v>402.0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>39643.0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>1269.38</v>
-      </c>
-      <c r="P15" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1498,47 +1310,32 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G16" s="3">
         <v>64502.0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="4">
-        <v>403.0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>43158.0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>1538.69</v>
-      </c>
-      <c r="P16" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1552,47 +1349,32 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G17" s="3">
         <v>64501.0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>42944.0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>736.86</v>
-      </c>
-      <c r="P17" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1616,21 +1398,6 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="4">
-        <v>501.0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>43383.0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>528.96</v>
-      </c>
-      <c r="P18" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1644,7 +1411,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1656,21 +1423,6 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="4">
-        <v>502.0</v>
-      </c>
-      <c r="M19" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>43702.0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>423.38</v>
-      </c>
-      <c r="P19" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1683,46 +1435,31 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="4">
-        <v>600.0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>40866.0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>53.85</v>
-      </c>
-      <c r="P20" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1735,46 +1472,31 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="5">
         <v>1.0</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>200.0</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>0.022</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="7">
         <v>37591.0</v>
       </c>
-      <c r="F21" s="7" t="b">
+      <c r="F21" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>72</v>
+      <c r="G21" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="4">
-        <v>601.0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>41002.0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>208.53</v>
-      </c>
-      <c r="P21" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1787,46 +1509,31 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5">
         <v>2.0</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>100.0</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>0.023</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="7">
         <v>38035.0</v>
       </c>
-      <c r="F22" s="7" t="b">
+      <c r="F22" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>72</v>
+      <c r="G22" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="4">
-        <v>602.0</v>
-      </c>
-      <c r="M22" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>41456.0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>403.87</v>
-      </c>
-      <c r="P22" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1839,46 +1546,31 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
         <v>3.0</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>875.54</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>0.028</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="7">
         <v>36053.0</v>
       </c>
-      <c r="F23" s="7" t="b">
+      <c r="F23" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>72</v>
+      <c r="G23" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="4">
-        <v>603.0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>42129.0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>705.15</v>
-      </c>
-      <c r="P23" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1891,46 +1583,31 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="5">
         <v>4.0</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="6">
         <v>1200.82</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.021</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="7">
         <v>39637.0</v>
       </c>
-      <c r="F24" s="7" t="b">
+      <c r="F24" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>72</v>
+      <c r="G24" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="4">
-        <v>700.0</v>
-      </c>
-      <c r="M24" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="N24" s="8">
-        <v>37805.0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>403.42</v>
-      </c>
-      <c r="P24" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1943,46 +1620,31 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
         <v>5.0</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="6">
         <v>1500.0</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>0.021</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="7">
         <v>42942.0</v>
       </c>
-      <c r="F25" s="7" t="b">
+      <c r="F25" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>72</v>
+      <c r="G25" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="4">
-        <v>701.0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>39055.0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>1005.12</v>
-      </c>
-      <c r="P25" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1995,46 +1657,31 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="5">
         <v>6.0</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="6">
         <v>1898.07</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>0.021</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="7">
         <v>36903.0</v>
       </c>
-      <c r="F26" s="7" t="b">
+      <c r="F26" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>72</v>
+      <c r="G26" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="4">
-        <v>702.0</v>
-      </c>
-      <c r="M26" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="N26" s="8">
-        <v>41622.0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>603.58</v>
-      </c>
-      <c r="P26" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -2047,46 +1694,31 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="7">
+      <c r="A27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="5">
         <v>7.0</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="6">
         <v>5000.99</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>0.02</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="7">
         <v>37802.0</v>
       </c>
-      <c r="F27" s="7" t="b">
+      <c r="F27" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>72</v>
+      <c r="G27" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="4">
-        <v>800.0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>37626.0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>355.25</v>
-      </c>
-      <c r="P27" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -2099,46 +1731,31 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="7">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5">
         <v>8.0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="6">
         <v>125.54</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>0.029</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="7">
         <v>37598.0</v>
       </c>
-      <c r="F28" s="7" t="b">
+      <c r="F28" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>72</v>
+      <c r="G28" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="4">
-        <v>801.0</v>
-      </c>
-      <c r="M28" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="N28" s="8">
-        <v>39215.0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>462.29</v>
-      </c>
-      <c r="P28" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -2151,45 +1768,30 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="7">
+      <c r="A29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="5">
         <v>9.0</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="6">
         <v>198.56</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>0.028</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="7">
         <v>40848.0</v>
       </c>
-      <c r="F29" s="7" t="b">
+      <c r="F29" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>72</v>
+      <c r="G29" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="L29" s="4">
-        <v>802.0</v>
-      </c>
-      <c r="M29" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="N29" s="8">
-        <v>41923.0</v>
-      </c>
-      <c r="O29" s="9">
-        <v>153.43</v>
-      </c>
-      <c r="P29" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -2202,45 +1804,30 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="7">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="5">
         <v>10.0</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="6">
         <v>98.56</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>0.029</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="7">
         <v>37591.0</v>
       </c>
-      <c r="F30" s="7" t="b">
+      <c r="F30" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>72</v>
+      <c r="G30" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="L30" s="4">
-        <v>803.0</v>
-      </c>
-      <c r="M30" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="N30" s="8">
-        <v>43361.0</v>
-      </c>
-      <c r="O30" s="9">
-        <v>428.73</v>
-      </c>
-      <c r="P30" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -2253,45 +1840,30 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="7">
+      <c r="A31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="5">
         <v>11.0</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="6">
         <v>1500.0</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>0.03</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="7">
         <v>43757.0</v>
       </c>
-      <c r="F31" s="7" t="b">
+      <c r="F31" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="8">
         <v>45218.0</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="L31" s="4">
-        <v>804.0</v>
-      </c>
-      <c r="M31" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="N31" s="8">
-        <v>43543.0</v>
-      </c>
-      <c r="O31" s="9">
-        <v>975.48</v>
-      </c>
-      <c r="P31" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2304,45 +1876,30 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="A32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="5">
         <v>12.0</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="6">
         <v>1200.0</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>0.03</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="7">
         <v>42718.0</v>
       </c>
-      <c r="F32" s="7" t="b">
+      <c r="F32" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="8">
         <v>43813.0</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="L32" s="4">
-        <v>900.0</v>
-      </c>
-      <c r="M32" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="N32" s="8">
-        <v>40861.0</v>
-      </c>
-      <c r="O32" s="9">
-        <v>189.85</v>
-      </c>
-      <c r="P32" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2355,45 +1912,30 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="7">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="5">
         <v>13.0</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="6">
         <v>8000.0</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>0.03</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="7">
         <v>42794.0</v>
       </c>
-      <c r="F33" s="7" t="b">
+      <c r="F33" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="8">
         <v>43889.0</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="L33" s="4">
-        <v>901.0</v>
-      </c>
-      <c r="M33" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="N33" s="8">
-        <v>40883.0</v>
-      </c>
-      <c r="O33" s="9">
-        <v>703.86</v>
-      </c>
-      <c r="P33" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2406,45 +1948,30 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="7">
+      <c r="A34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5">
         <v>14.0</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="6">
         <v>4000.0</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>0.03</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="7">
         <v>42785.0</v>
       </c>
-      <c r="F34" s="7" t="b">
+      <c r="F34" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="8">
         <v>43880.0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="L34" s="4">
-        <v>902.0</v>
-      </c>
-      <c r="M34" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="N34" s="8">
-        <v>40907.0</v>
-      </c>
-      <c r="O34" s="9">
-        <v>835.82</v>
-      </c>
-      <c r="P34" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2457,45 +1984,30 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="7">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="5">
         <v>15.0</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="6">
         <v>1700.0</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>0.024</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="7">
         <v>43696.0</v>
       </c>
-      <c r="F35" s="7" t="b">
+      <c r="F35" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>72</v>
+      <c r="G35" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="L35" s="4">
-        <v>903.0</v>
-      </c>
-      <c r="M35" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="N35" s="8">
-        <v>40942.0</v>
-      </c>
-      <c r="O35" s="9">
-        <v>568.24</v>
-      </c>
-      <c r="P35" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2518,21 +2030,6 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="L36" s="4">
-        <v>904.0</v>
-      </c>
-      <c r="M36" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="N36" s="8">
-        <v>42140.0</v>
-      </c>
-      <c r="O36" s="9">
-        <v>766.85</v>
-      </c>
-      <c r="P36" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -2546,7 +2043,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2557,21 +2054,6 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="L37" s="4">
-        <v>1000.0</v>
-      </c>
-      <c r="M37" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="N37" s="8">
-        <v>37617.0</v>
-      </c>
-      <c r="O37" s="9">
-        <v>1583.78</v>
-      </c>
-      <c r="P37" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -2584,45 +2066,30 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>100</v>
+      <c r="G38" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="L38" s="4">
-        <v>1001.0</v>
-      </c>
-      <c r="M38" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="N38" s="8">
-        <v>37799.0</v>
-      </c>
-      <c r="O38" s="9">
-        <v>1433.33</v>
-      </c>
-      <c r="P38" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2635,45 +2102,30 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="7">
+      <c r="A39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5">
         <v>1.0</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="6">
         <v>6.23</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="7">
         <v>37591.0</v>
       </c>
-      <c r="E39" s="7" t="b">
+      <c r="E39" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>1.0</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="5">
         <v>3.0</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="L39" s="4">
-        <v>1002.0</v>
-      </c>
-      <c r="M39" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="N39" s="8">
-        <v>37854.0</v>
-      </c>
-      <c r="O39" s="9">
-        <v>7056.86</v>
-      </c>
-      <c r="P39" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2686,45 +2138,30 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="7">
+      <c r="A40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5">
         <v>2.0</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="6">
         <v>52.9</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="7">
         <v>37649.0</v>
       </c>
-      <c r="E40" s="7" t="b">
+      <c r="E40" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <v>2.0</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="5">
         <v>1.0</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="L40" s="4">
-        <v>1003.0</v>
-      </c>
-      <c r="M40" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="N40" s="8">
-        <v>38235.0</v>
-      </c>
-      <c r="O40" s="9">
-        <v>400.0</v>
-      </c>
-      <c r="P40" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2737,45 +2174,30 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="7">
+      <c r="A41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="5">
         <v>3.0</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="6">
         <v>2200.11</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="7">
         <v>36835.0</v>
       </c>
-      <c r="E41" s="7" t="b">
+      <c r="E41" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <v>3.0</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="5">
         <v>0.0</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="L41" s="4">
-        <v>1004.0</v>
-      </c>
-      <c r="M41" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="N41" s="8">
-        <v>38412.0</v>
-      </c>
-      <c r="O41" s="9">
-        <v>758.26</v>
-      </c>
-      <c r="P41" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2788,45 +2210,30 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="7">
+      <c r="A42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="5">
         <v>4.0</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="6">
         <v>1378.2</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="7">
         <v>39637.0</v>
       </c>
-      <c r="E42" s="7" t="b">
+      <c r="E42" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="5">
         <v>4.0</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="5">
         <v>2.0</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
-      <c r="L42" s="4">
-        <v>1100.0</v>
-      </c>
-      <c r="M42" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="N42" s="13">
-        <v>43757.0</v>
-      </c>
-      <c r="O42" s="9">
-        <v>593.99</v>
-      </c>
-      <c r="P42" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2839,45 +2246,30 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="A43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="5">
         <v>5.0</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="6">
         <v>522.89</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="7">
         <v>42942.0</v>
       </c>
-      <c r="E43" s="7" t="b">
+      <c r="E43" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="5">
         <v>5.0</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="5">
         <v>0.0</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="L43" s="4">
-        <v>1101.0</v>
-      </c>
-      <c r="M43" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="N43" s="13">
-        <v>43759.0</v>
-      </c>
-      <c r="O43" s="9">
-        <v>839.69</v>
-      </c>
-      <c r="P43" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2890,45 +2282,30 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="7">
+      <c r="A44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="5">
         <v>6.0</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="6">
         <v>1896.44</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="7">
         <v>40798.0</v>
       </c>
-      <c r="E44" s="7" t="b">
+      <c r="E44" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="5">
         <v>6.0</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="5">
         <v>1.0</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="L44" s="4">
-        <v>1102.0</v>
-      </c>
-      <c r="M44" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="N44" s="13">
-        <v>43760.0</v>
-      </c>
-      <c r="O44" s="9">
-        <v>453.25</v>
-      </c>
-      <c r="P44" s="3" t="b">
-        <v>0</v>
-      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2941,45 +2318,30 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="7">
+      <c r="A45" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5">
         <v>7.0</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="6">
         <v>7955.0</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="7">
         <v>36942.0</v>
       </c>
-      <c r="E45" s="7" t="b">
+      <c r="E45" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="5">
         <v>7.0</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="5">
         <v>0.0</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="L45" s="4">
-        <v>1200.0</v>
-      </c>
-      <c r="M45" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="N45" s="13">
-        <v>42719.0</v>
-      </c>
-      <c r="O45" s="9">
-        <v>233.82</v>
-      </c>
-      <c r="P45" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2992,45 +2354,30 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="7">
+      <c r="A46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="5">
         <v>8.0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="6">
         <v>85.12</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="7">
         <v>37598.0</v>
       </c>
-      <c r="E46" s="7" t="b">
+      <c r="E46" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="5">
         <v>8.0</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="5">
         <v>1.0</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="L46" s="4">
-        <v>1201.0</v>
-      </c>
-      <c r="M46" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="N46" s="8">
-        <v>42720.0</v>
-      </c>
-      <c r="O46" s="9">
-        <v>399.39</v>
-      </c>
-      <c r="P46" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -3043,45 +2390,30 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="7">
+      <c r="A47" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="5">
         <v>9.0</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="6">
         <v>133.7</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="7">
         <v>40860.0</v>
       </c>
-      <c r="E47" s="7" t="b">
+      <c r="E47" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="5">
         <v>9.0</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="5">
         <v>0.0</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="L47" s="4">
-        <v>1202.0</v>
-      </c>
-      <c r="M47" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="N47" s="8">
-        <v>42776.0</v>
-      </c>
-      <c r="O47" s="9">
-        <v>180.9</v>
-      </c>
-      <c r="P47" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -3094,45 +2426,30 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="7">
+      <c r="A48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="5">
         <v>10.0</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="6">
         <v>12.42</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="7">
         <v>37616.0</v>
       </c>
-      <c r="E48" s="7" t="b">
+      <c r="E48" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="5">
         <v>10.0</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="5">
         <v>4.0</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="L48" s="4">
-        <v>1203.0</v>
-      </c>
-      <c r="M48" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="N48" s="8">
-        <v>42935.0</v>
-      </c>
-      <c r="O48" s="9">
-        <v>832.85</v>
-      </c>
-      <c r="P48" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -3145,45 +2462,30 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="7">
+      <c r="A49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="5">
         <v>11.0</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="6">
         <v>8779.55</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="7">
         <v>40541.0</v>
       </c>
-      <c r="E49" s="7" t="b">
+      <c r="E49" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="7">
+      <c r="F49" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="5">
         <v>0.0</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="L49" s="4">
-        <v>1300.0</v>
-      </c>
-      <c r="M49" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="N49" s="13">
-        <v>43696.0</v>
-      </c>
-      <c r="O49" s="9">
-        <v>608.25</v>
-      </c>
-      <c r="P49" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -3196,45 +2498,30 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="7">
+      <c r="A50" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="5">
         <v>12.0</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="6">
         <v>1056.88</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="7">
         <v>35947.0</v>
       </c>
-      <c r="E50" s="7" t="b">
+      <c r="E50" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="7">
+      <c r="F50" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="5">
         <v>0.0</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="L50" s="4">
-        <v>1301.0</v>
-      </c>
-      <c r="M50" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="N50" s="13">
-        <v>43697.0</v>
-      </c>
-      <c r="O50" s="9">
-        <v>733.58</v>
-      </c>
-      <c r="P50" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -3247,45 +2534,30 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>72</v>
+      <c r="A51" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="L51" s="4">
-        <v>1302.0</v>
-      </c>
-      <c r="M51" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="N51" s="13">
-        <v>43704.0</v>
-      </c>
-      <c r="O51" s="9">
-        <v>165.55</v>
-      </c>
-      <c r="P51" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -3298,45 +2570,30 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>72</v>
+      <c r="A52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="L52" s="4">
-        <v>1303.0</v>
-      </c>
-      <c r="M52" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="N52" s="13">
-        <v>43727.0</v>
-      </c>
-      <c r="O52" s="9">
-        <v>572.63</v>
-      </c>
-      <c r="P52" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -3349,45 +2606,30 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="7">
+      <c r="A53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="5">
         <v>13.0</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="6">
         <v>3299.33</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="7">
         <v>43696.0</v>
       </c>
-      <c r="E53" s="7" t="b">
+      <c r="E53" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="5">
         <v>11.0</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="5">
         <v>2.0</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="L53" s="4">
-        <v>1304.0</v>
-      </c>
-      <c r="M53" s="14">
-        <v>13.0</v>
-      </c>
-      <c r="N53" s="13">
-        <v>43728.0</v>
-      </c>
-      <c r="O53" s="9">
-        <v>672.53</v>
-      </c>
-      <c r="P53" s="3" t="b">
-        <v>1</v>
-      </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -3410,9 +2652,9 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="L54" s="4"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="10"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -3427,7 +2669,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3438,9 +2680,9 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="L55" s="4"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="10"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -3454,37 +2696,37 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="H56" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="I56" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="J56" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F56" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L56" s="4"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="10"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -3498,21 +2740,21 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="9"/>
+      <c r="A57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="10"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -3526,37 +2768,37 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
-      <c r="B58" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="18">
+      <c r="A58" s="9"/>
+      <c r="B58" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="13">
         <v>5000.0</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="13">
         <v>3579.0</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>0.15</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="7">
         <v>43765.0</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="7">
         <v>43739.0</v>
       </c>
-      <c r="H58" s="18">
+      <c r="H58" s="13">
         <v>95.83</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="7">
         <v>43697.0</v>
       </c>
-      <c r="J58" s="7" t="b">
+      <c r="J58" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="10"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -3570,37 +2812,37 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
-      <c r="B59" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="18">
+      <c r="A59" s="9"/>
+      <c r="B59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="13">
         <v>6000.0</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="13">
         <v>3698.0</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>0.12</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="13">
         <v>112.0</v>
       </c>
-      <c r="I59" s="13">
+      <c r="I59" s="7">
         <v>43750.0</v>
       </c>
-      <c r="J59" s="7" t="b">
+      <c r="J59" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="10"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -3614,32 +2856,32 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
-      <c r="B60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="18">
+      <c r="A60" s="9"/>
+      <c r="B60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="13">
         <v>8000.0</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="13">
         <v>6149.0</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>0.08</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="7">
         <v>43765.0</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="7">
         <v>43739.0</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="13">
         <v>144.0</v>
       </c>
-      <c r="I60" s="13">
+      <c r="I60" s="7">
         <v>43724.0</v>
       </c>
-      <c r="J60" s="19" t="b">
+      <c r="J60" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O60" s="2"/>
@@ -3656,32 +2898,32 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="18">
+      <c r="A61" s="9"/>
+      <c r="B61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="13">
         <v>8000.0</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="13">
         <v>2136.0</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>0.05</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="13">
         <v>140.0</v>
       </c>
-      <c r="I61" s="13">
+      <c r="I61" s="7">
         <v>43760.0</v>
       </c>
-      <c r="J61" s="19" t="b">
+      <c r="J61" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O61" s="2"/>
@@ -3698,32 +2940,32 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
-      <c r="B62" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="18">
+      <c r="A62" s="9"/>
+      <c r="B62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="13">
         <v>9000.0</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="13">
         <v>7216.0</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>0.12</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="13">
         <v>168.0</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="7">
         <v>43764.0</v>
       </c>
-      <c r="J62" s="19" t="b">
+      <c r="J62" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O62" s="2"/>
@@ -3740,18 +2982,18 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="4"/>
+      <c r="A63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="9"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -3766,32 +3008,32 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
-      <c r="B64" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="18">
+      <c r="A64" s="9"/>
+      <c r="B64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="13">
         <v>90000.0</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="13">
         <v>44763.0</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>0.1</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H64" s="18">
+      <c r="H64" s="13">
         <v>1650.0</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="7">
         <v>43747.0</v>
       </c>
-      <c r="J64" s="19" t="b">
+      <c r="J64" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O64" s="2"/>
@@ -3808,32 +3050,32 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
-      <c r="B65" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="18">
+      <c r="A65" s="9"/>
+      <c r="B65" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="13">
         <v>100000.0</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="13">
         <v>54712.0</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>0.05</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="7">
         <v>43765.0</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="7">
         <v>43739.0</v>
       </c>
-      <c r="H65" s="18">
+      <c r="H65" s="13">
         <v>1750.0</v>
       </c>
-      <c r="I65" s="13">
+      <c r="I65" s="7">
         <v>43725.0</v>
       </c>
-      <c r="J65" s="19" t="b">
+      <c r="J65" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O65" s="2"/>
@@ -3850,32 +3092,32 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="18">
+      <c r="A66" s="9"/>
+      <c r="B66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="13">
         <v>100000.0</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="13">
         <v>65489.0</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>0.07</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="13">
         <v>1783.33</v>
       </c>
-      <c r="I66" s="13">
+      <c r="I66" s="7">
         <v>43735.0</v>
       </c>
-      <c r="J66" s="19" t="b">
+      <c r="J66" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O66" s="2"/>
@@ -3892,32 +3134,32 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
-      <c r="B67" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="18">
+      <c r="A67" s="9"/>
+      <c r="B67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="13">
         <v>120000.0</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="13">
         <v>95464.0</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>0.09</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="13">
         <v>2180.0</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I67" s="7">
         <v>43751.0</v>
       </c>
-      <c r="J67" s="7" t="b">
+      <c r="J67" s="5" t="b">
         <v>1</v>
       </c>
       <c r="O67" s="2"/>
@@ -3934,32 +3176,32 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
-      <c r="B68" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="18">
+      <c r="A68" s="9"/>
+      <c r="B68" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="13">
         <v>140000.0</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="13">
         <v>80569.0</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>0.08</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H68" s="18">
+      <c r="H68" s="13">
         <v>2520.0</v>
       </c>
-      <c r="I68" s="13">
+      <c r="I68" s="7">
         <v>43765.0</v>
       </c>
-      <c r="J68" s="19" t="b">
+      <c r="J68" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O68" s="2"/>
@@ -3976,18 +3218,18 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="4"/>
+      <c r="A69" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="9"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -4002,30 +3244,30 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="4"/>
-      <c r="B70" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="18">
+      <c r="A70" s="9"/>
+      <c r="B70" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="13">
         <v>3579.0</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="5">
         <v>0.15</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="7">
         <v>43765.0</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="7">
         <v>43739.0</v>
       </c>
-      <c r="H70" s="18">
+      <c r="H70" s="13">
         <v>82.32</v>
       </c>
-      <c r="I70" s="13">
+      <c r="I70" s="7">
         <v>43697.0</v>
       </c>
-      <c r="J70" s="19" t="b">
+      <c r="J70" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O70" s="2"/>
@@ -4042,30 +3284,30 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="4"/>
-      <c r="B71" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="18">
+      <c r="A71" s="9"/>
+      <c r="B71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="13">
         <v>3698.0</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="5">
         <v>0.12</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H71" s="13">
         <v>82.84</v>
       </c>
-      <c r="I71" s="13">
+      <c r="I71" s="7">
         <v>43750.0</v>
       </c>
-      <c r="J71" s="7" t="b">
+      <c r="J71" s="5" t="b">
         <v>1</v>
       </c>
       <c r="O71" s="2"/>
@@ -4082,30 +3324,30 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="4"/>
-      <c r="B72" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="18">
+      <c r="A72" s="9"/>
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="13">
         <v>6149.0</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="5">
         <v>0.08</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="7">
         <v>43765.0</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="7">
         <v>43739.0</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="13">
         <v>132.82</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="7">
         <v>43724.0</v>
       </c>
-      <c r="J72" s="19" t="b">
+      <c r="J72" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O72" s="2"/>
@@ -4122,30 +3364,30 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="4"/>
-      <c r="B73" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="18">
+      <c r="A73" s="9"/>
+      <c r="B73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="13">
         <v>2136.0</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>0.05</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H73" s="13">
         <v>44.86</v>
       </c>
-      <c r="I73" s="13">
+      <c r="I73" s="7">
         <v>43760.0</v>
       </c>
-      <c r="J73" s="19" t="b">
+      <c r="J73" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O73" s="2"/>
@@ -4162,30 +3404,30 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="4"/>
-      <c r="B74" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="18">
+      <c r="A74" s="9"/>
+      <c r="B74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="13">
         <v>7216.0</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="5">
         <v>0.12</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="7">
         <v>43796.0</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="7">
         <v>43770.0</v>
       </c>
-      <c r="H74" s="18">
+      <c r="H74" s="13">
         <v>161.64</v>
       </c>
-      <c r="I74" s="13">
+      <c r="I74" s="7">
         <v>43764.0</v>
       </c>
-      <c r="J74" s="19" t="b">
+      <c r="J74" s="14" t="b">
         <v>0</v>
       </c>
       <c r="O74" s="2"/>
@@ -4226,11 +3468,13 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="A76" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -4250,11 +3494,21 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="A77" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -4274,11 +3528,21 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="A78" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="B78" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C78" s="22">
+        <v>38445.0</v>
+      </c>
+      <c r="D78" s="23">
+        <v>123.62</v>
+      </c>
+      <c r="E78" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -4298,11 +3562,21 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="A79" s="18">
+        <v>101.0</v>
+      </c>
+      <c r="B79" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C79" s="24">
+        <v>39311.0</v>
+      </c>
+      <c r="D79" s="23">
+        <v>145.67</v>
+      </c>
+      <c r="E79" s="25" t="b">
+        <v>1</v>
+      </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -4322,16 +3596,26 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
+      <c r="A80" s="18">
+        <v>102.0</v>
+      </c>
+      <c r="B80" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="C80" s="24">
+        <v>40070.0</v>
+      </c>
+      <c r="D80" s="23">
+        <v>5.06</v>
+      </c>
+      <c r="E80" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -4346,16 +3630,26 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="A81" s="18">
+        <v>200.0</v>
+      </c>
+      <c r="B81" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C81" s="22">
+        <v>38036.0</v>
+      </c>
+      <c r="D81" s="23">
+        <v>89.56</v>
+      </c>
+      <c r="E81" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -4370,16 +3664,26 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
+      <c r="A82" s="18">
+        <v>201.0</v>
+      </c>
+      <c r="B82" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C82" s="22">
+        <v>38047.0</v>
+      </c>
+      <c r="D82" s="23">
+        <v>653.69</v>
+      </c>
+      <c r="E82" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -4394,16 +3698,26 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="A83" s="18">
+        <v>202.0</v>
+      </c>
+      <c r="B83" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C83" s="22">
+        <v>38114.0</v>
+      </c>
+      <c r="D83" s="23">
+        <v>945.39</v>
+      </c>
+      <c r="E83" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -4418,16 +3732,26 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="A84" s="18">
+        <v>203.0</v>
+      </c>
+      <c r="B84" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C84" s="22">
+        <v>39334.0</v>
+      </c>
+      <c r="D84" s="23">
+        <v>1839.36</v>
+      </c>
+      <c r="E84" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -4442,16 +3766,26 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="A85" s="18">
+        <v>204.0</v>
+      </c>
+      <c r="B85" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="C85" s="22">
+        <v>39494.0</v>
+      </c>
+      <c r="D85" s="23">
+        <v>532.68</v>
+      </c>
+      <c r="E85" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -4466,16 +3800,26 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+      <c r="A86" s="18">
+        <v>300.0</v>
+      </c>
+      <c r="B86" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="C86" s="22">
+        <v>36838.0</v>
+      </c>
+      <c r="D86" s="23">
+        <v>486.96</v>
+      </c>
+      <c r="E86" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -4490,16 +3834,26 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
+      <c r="A87" s="18">
+        <v>301.0</v>
+      </c>
+      <c r="B87" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="C87" s="22">
+        <v>41031.0</v>
+      </c>
+      <c r="D87" s="23">
+        <v>2693.86</v>
+      </c>
+      <c r="E87" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -4514,16 +3868,26 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
+      <c r="A88" s="18">
+        <v>400.0</v>
+      </c>
+      <c r="B88" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="C88" s="22">
+        <v>39638.0</v>
+      </c>
+      <c r="D88" s="23">
+        <v>902.3</v>
+      </c>
+      <c r="E88" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4542,16 +3906,26 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
+      <c r="A89" s="18">
+        <v>401.0</v>
+      </c>
+      <c r="B89" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="C89" s="22">
+        <v>39639.0</v>
+      </c>
+      <c r="D89" s="23">
+        <v>536.96</v>
+      </c>
+      <c r="E89" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4570,16 +3944,26 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
+      <c r="A90" s="18">
+        <v>402.0</v>
+      </c>
+      <c r="B90" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="C90" s="22">
+        <v>39643.0</v>
+      </c>
+      <c r="D90" s="23">
+        <v>1269.38</v>
+      </c>
+      <c r="E90" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -4598,16 +3982,26 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
+      <c r="A91" s="18">
+        <v>403.0</v>
+      </c>
+      <c r="B91" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="C91" s="22">
+        <v>43158.0</v>
+      </c>
+      <c r="D91" s="23">
+        <v>1538.69</v>
+      </c>
+      <c r="E91" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -4626,16 +4020,26 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
+      <c r="A92" s="18">
+        <v>500.0</v>
+      </c>
+      <c r="B92" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="C92" s="22">
+        <v>42944.0</v>
+      </c>
+      <c r="D92" s="23">
+        <v>736.86</v>
+      </c>
+      <c r="E92" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -4654,16 +4058,26 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
+      <c r="A93" s="18">
+        <v>501.0</v>
+      </c>
+      <c r="B93" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="C93" s="22">
+        <v>43383.0</v>
+      </c>
+      <c r="D93" s="23">
+        <v>528.96</v>
+      </c>
+      <c r="E93" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -4682,16 +4096,26 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
+      <c r="A94" s="18">
+        <v>502.0</v>
+      </c>
+      <c r="B94" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="C94" s="22">
+        <v>43702.0</v>
+      </c>
+      <c r="D94" s="23">
+        <v>423.38</v>
+      </c>
+      <c r="E94" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -4710,16 +4134,26 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
+      <c r="A95" s="18">
+        <v>600.0</v>
+      </c>
+      <c r="B95" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="C95" s="22">
+        <v>40866.0</v>
+      </c>
+      <c r="D95" s="23">
+        <v>53.85</v>
+      </c>
+      <c r="E95" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -4738,16 +4172,26 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="A96" s="18">
+        <v>601.0</v>
+      </c>
+      <c r="B96" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="C96" s="22">
+        <v>41002.0</v>
+      </c>
+      <c r="D96" s="23">
+        <v>208.53</v>
+      </c>
+      <c r="E96" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -4766,16 +4210,26 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
+      <c r="A97" s="18">
+        <v>602.0</v>
+      </c>
+      <c r="B97" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="C97" s="22">
+        <v>41456.0</v>
+      </c>
+      <c r="D97" s="23">
+        <v>403.87</v>
+      </c>
+      <c r="E97" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -4794,16 +4248,26 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
+      <c r="A98" s="18">
+        <v>603.0</v>
+      </c>
+      <c r="B98" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="C98" s="22">
+        <v>42129.0</v>
+      </c>
+      <c r="D98" s="23">
+        <v>705.15</v>
+      </c>
+      <c r="E98" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -4822,16 +4286,26 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="A99" s="18">
+        <v>700.0</v>
+      </c>
+      <c r="B99" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="C99" s="22">
+        <v>37805.0</v>
+      </c>
+      <c r="D99" s="23">
+        <v>403.42</v>
+      </c>
+      <c r="E99" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -4850,16 +4324,26 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="A100" s="18">
+        <v>701.0</v>
+      </c>
+      <c r="B100" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="C100" s="22">
+        <v>39055.0</v>
+      </c>
+      <c r="D100" s="23">
+        <v>1005.12</v>
+      </c>
+      <c r="E100" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -4878,16 +4362,26 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
+      <c r="A101" s="18">
+        <v>702.0</v>
+      </c>
+      <c r="B101" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="C101" s="22">
+        <v>41622.0</v>
+      </c>
+      <c r="D101" s="23">
+        <v>603.58</v>
+      </c>
+      <c r="E101" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -4906,16 +4400,26 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="A102" s="18">
+        <v>800.0</v>
+      </c>
+      <c r="B102" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="C102" s="22">
+        <v>37626.0</v>
+      </c>
+      <c r="D102" s="23">
+        <v>355.25</v>
+      </c>
+      <c r="E102" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -4934,16 +4438,26 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
+      <c r="A103" s="18">
+        <v>801.0</v>
+      </c>
+      <c r="B103" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="C103" s="22">
+        <v>39215.0</v>
+      </c>
+      <c r="D103" s="23">
+        <v>462.29</v>
+      </c>
+      <c r="E103" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -4962,16 +4476,26 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
+      <c r="A104" s="18">
+        <v>802.0</v>
+      </c>
+      <c r="B104" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="C104" s="22">
+        <v>41923.0</v>
+      </c>
+      <c r="D104" s="23">
+        <v>153.43</v>
+      </c>
+      <c r="E104" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -4990,16 +4514,26 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
+      <c r="A105" s="18">
+        <v>803.0</v>
+      </c>
+      <c r="B105" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="C105" s="22">
+        <v>43361.0</v>
+      </c>
+      <c r="D105" s="23">
+        <v>428.73</v>
+      </c>
+      <c r="E105" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
@@ -5018,16 +4552,26 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
+      <c r="A106" s="18">
+        <v>804.0</v>
+      </c>
+      <c r="B106" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="C106" s="22">
+        <v>43543.0</v>
+      </c>
+      <c r="D106" s="23">
+        <v>975.48</v>
+      </c>
+      <c r="E106" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -5046,16 +4590,26 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
+      <c r="A107" s="18">
+        <v>900.0</v>
+      </c>
+      <c r="B107" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="C107" s="22">
+        <v>40861.0</v>
+      </c>
+      <c r="D107" s="23">
+        <v>189.85</v>
+      </c>
+      <c r="E107" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
@@ -5074,16 +4628,26 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
+      <c r="A108" s="18">
+        <v>901.0</v>
+      </c>
+      <c r="B108" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="C108" s="22">
+        <v>40883.0</v>
+      </c>
+      <c r="D108" s="23">
+        <v>703.86</v>
+      </c>
+      <c r="E108" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -5102,16 +4666,26 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
+      <c r="A109" s="18">
+        <v>902.0</v>
+      </c>
+      <c r="B109" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="C109" s="22">
+        <v>40907.0</v>
+      </c>
+      <c r="D109" s="23">
+        <v>835.82</v>
+      </c>
+      <c r="E109" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
@@ -5130,16 +4704,26 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
+      <c r="A110" s="18">
+        <v>903.0</v>
+      </c>
+      <c r="B110" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="C110" s="22">
+        <v>40942.0</v>
+      </c>
+      <c r="D110" s="23">
+        <v>568.24</v>
+      </c>
+      <c r="E110" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
@@ -5158,16 +4742,26 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
+      <c r="A111" s="18">
+        <v>904.0</v>
+      </c>
+      <c r="B111" s="21">
+        <v>9.0</v>
+      </c>
+      <c r="C111" s="22">
+        <v>42140.0</v>
+      </c>
+      <c r="D111" s="23">
+        <v>766.85</v>
+      </c>
+      <c r="E111" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
@@ -5186,16 +4780,26 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
+      <c r="A112" s="18">
+        <v>1000.0</v>
+      </c>
+      <c r="B112" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C112" s="22">
+        <v>37617.0</v>
+      </c>
+      <c r="D112" s="23">
+        <v>1583.78</v>
+      </c>
+      <c r="E112" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
@@ -5214,16 +4818,26 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
+      <c r="A113" s="18">
+        <v>1001.0</v>
+      </c>
+      <c r="B113" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C113" s="22">
+        <v>37799.0</v>
+      </c>
+      <c r="D113" s="23">
+        <v>1433.33</v>
+      </c>
+      <c r="E113" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
@@ -5242,16 +4856,26 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
+      <c r="A114" s="18">
+        <v>1002.0</v>
+      </c>
+      <c r="B114" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C114" s="22">
+        <v>37854.0</v>
+      </c>
+      <c r="D114" s="23">
+        <v>7056.86</v>
+      </c>
+      <c r="E114" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
@@ -5270,16 +4894,26 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
+      <c r="A115" s="18">
+        <v>1003.0</v>
+      </c>
+      <c r="B115" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C115" s="22">
+        <v>38235.0</v>
+      </c>
+      <c r="D115" s="23">
+        <v>400.0</v>
+      </c>
+      <c r="E115" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
@@ -5298,16 +4932,26 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
+      <c r="A116" s="18">
+        <v>1004.0</v>
+      </c>
+      <c r="B116" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C116" s="22">
+        <v>38412.0</v>
+      </c>
+      <c r="D116" s="23">
+        <v>758.26</v>
+      </c>
+      <c r="E116" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
@@ -5326,16 +4970,26 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
+      <c r="A117" s="18">
+        <v>1100.0</v>
+      </c>
+      <c r="B117" s="21">
+        <v>11.0</v>
+      </c>
+      <c r="C117" s="27">
+        <v>43757.0</v>
+      </c>
+      <c r="D117" s="23">
+        <v>593.99</v>
+      </c>
+      <c r="E117" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
@@ -5354,16 +5008,26 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
+      <c r="A118" s="18">
+        <v>1101.0</v>
+      </c>
+      <c r="B118" s="21">
+        <v>11.0</v>
+      </c>
+      <c r="C118" s="27">
+        <v>43759.0</v>
+      </c>
+      <c r="D118" s="23">
+        <v>839.69</v>
+      </c>
+      <c r="E118" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
@@ -5382,16 +5046,26 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
+      <c r="A119" s="18">
+        <v>1102.0</v>
+      </c>
+      <c r="B119" s="21">
+        <v>11.0</v>
+      </c>
+      <c r="C119" s="27">
+        <v>43760.0</v>
+      </c>
+      <c r="D119" s="23">
+        <v>453.25</v>
+      </c>
+      <c r="E119" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
@@ -5410,16 +5084,26 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
+      <c r="A120" s="18">
+        <v>1200.0</v>
+      </c>
+      <c r="B120" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="C120" s="27">
+        <v>42719.0</v>
+      </c>
+      <c r="D120" s="23">
+        <v>233.82</v>
+      </c>
+      <c r="E120" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
@@ -5438,16 +5122,26 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
+      <c r="A121" s="18">
+        <v>1201.0</v>
+      </c>
+      <c r="B121" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="C121" s="22">
+        <v>42720.0</v>
+      </c>
+      <c r="D121" s="23">
+        <v>399.39</v>
+      </c>
+      <c r="E121" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
@@ -5466,16 +5160,26 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
+      <c r="A122" s="18">
+        <v>1202.0</v>
+      </c>
+      <c r="B122" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="C122" s="22">
+        <v>42776.0</v>
+      </c>
+      <c r="D122" s="23">
+        <v>180.9</v>
+      </c>
+      <c r="E122" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
@@ -5494,16 +5198,26 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
+      <c r="A123" s="18">
+        <v>1203.0</v>
+      </c>
+      <c r="B123" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="C123" s="22">
+        <v>42935.0</v>
+      </c>
+      <c r="D123" s="23">
+        <v>832.85</v>
+      </c>
+      <c r="E123" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
@@ -5522,16 +5236,26 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="A124" s="18">
+        <v>1300.0</v>
+      </c>
+      <c r="B124" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="C124" s="27">
+        <v>43696.0</v>
+      </c>
+      <c r="D124" s="23">
+        <v>608.25</v>
+      </c>
+      <c r="E124" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
@@ -5550,16 +5274,26 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
+      <c r="A125" s="18">
+        <v>1301.0</v>
+      </c>
+      <c r="B125" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="C125" s="27">
+        <v>43697.0</v>
+      </c>
+      <c r="D125" s="23">
+        <v>733.58</v>
+      </c>
+      <c r="E125" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
@@ -5578,16 +5312,26 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="A126" s="18">
+        <v>1302.0</v>
+      </c>
+      <c r="B126" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="C126" s="27">
+        <v>43704.0</v>
+      </c>
+      <c r="D126" s="23">
+        <v>165.55</v>
+      </c>
+      <c r="E126" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
@@ -5606,16 +5350,26 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
+      <c r="A127" s="18">
+        <v>1303.0</v>
+      </c>
+      <c r="B127" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="C127" s="27">
+        <v>43727.0</v>
+      </c>
+      <c r="D127" s="23">
+        <v>572.63</v>
+      </c>
+      <c r="E127" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
@@ -5634,16 +5388,26 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
+      <c r="A128" s="18">
+        <v>1304.0</v>
+      </c>
+      <c r="B128" s="21">
+        <v>13.0</v>
+      </c>
+      <c r="C128" s="27">
+        <v>43728.0</v>
+      </c>
+      <c r="D128" s="23">
+        <v>672.53</v>
+      </c>
+      <c r="E128" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
@@ -5667,11 +5431,11 @@
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
@@ -5695,11 +5459,11 @@
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
@@ -5723,11 +5487,11 @@
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
@@ -5751,11 +5515,11 @@
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
@@ -30078,6 +29842,9 @@
       <c r="Z1000" s="2"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>